--- a/22883.xlsx
+++ b/22883.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E6D99-D3A6-BD46-ACC2-A060FD148CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33B9435-A32E-624C-8E4B-5C425385FA24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
   <si>
     <t>E</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>bin4_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7BD52A-19C4-3244-93CF-2775A72A46F5}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,11 +488,11 @@
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="2" customWidth="1"/>
-    <col min="9" max="14" width="10.83203125" style="3"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="15" width="10.83203125" style="3"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,17 +535,20 @@
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>400</v>
       </c>
@@ -586,17 +592,20 @@
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>400</v>
       </c>
@@ -640,17 +649,20 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>400</v>
       </c>
@@ -694,17 +706,20 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>400</v>
       </c>
@@ -748,17 +763,20 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -802,17 +820,20 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>400</v>
       </c>
@@ -856,17 +877,20 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>400</v>
       </c>
@@ -910,17 +934,20 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>400</v>
       </c>
@@ -964,17 +991,20 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>400</v>
       </c>
@@ -1018,17 +1048,20 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>400</v>
       </c>
@@ -1072,17 +1105,20 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>400</v>
       </c>
@@ -1126,17 +1162,20 @@
         <f>0.25*I12</f>
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>400</v>
       </c>
@@ -1180,17 +1219,20 @@
         <f t="shared" ref="N13:N17" si="2">0.25*I13</f>
         <v>8.8500000000000009E-2</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>400</v>
       </c>
@@ -1234,17 +1276,20 @@
         <f t="shared" si="2"/>
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>400</v>
       </c>
@@ -1288,17 +1333,20 @@
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>400</v>
       </c>
@@ -1342,17 +1390,20 @@
         <f t="shared" si="2"/>
         <v>5.525E-2</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -1396,101 +1447,104 @@
         <f t="shared" si="2"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
